--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,34 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>terrifying</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
+    <t>wrong</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>seriously</t>
+    <t>crazy</t>
   </si>
   <si>
     <t>shit</t>
@@ -82,25 +82,28 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>social</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>positive</t>
@@ -472,7 +475,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -533,10 +536,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -580,13 +583,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -604,13 +607,13 @@
         <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -622,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -630,13 +633,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -654,13 +657,13 @@
         <v>23</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -672,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -680,13 +683,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -698,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K6">
-        <v>0.7543859649122807</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -722,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -730,13 +733,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8787878787878788</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C7">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -748,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7">
-        <v>0.5333333333333333</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +783,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8421052631578947</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -798,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -822,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -830,7 +833,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7058823529411765</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -848,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K9">
-        <v>0.4827586206896552</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -872,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -880,13 +883,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -898,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10">
-        <v>0.06466302367941712</v>
+        <v>0.0692167577413479</v>
       </c>
       <c r="L10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M10">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -922,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -950,13 +953,37 @@
       <c r="H11">
         <v>70</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>12</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>528</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4285714285714285</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -974,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -982,13 +1009,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3617021276595745</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1000,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1008,13 +1035,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1026,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
